--- a/数据整理/stocks/A股/创业板/300662-科锐国际.xlsx
+++ b/数据整理/stocks/A股/创业板/300662-科锐国际.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519673</t>
+          <t>000031</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银河康乐股票</t>
+          <t>华夏复兴混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>82.21</t>
+          <t>49.85</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3330</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>18.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>86.03</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>6.20</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1408</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>87.00</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>5.31</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6414</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>17.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>92.14</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.13</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5418</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000031</t>
+          <t>002124</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华夏复兴混合</t>
+          <t>广发新兴产业精选灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.53</t>
+          <t>11.79</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4480</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001345</t>
+          <t>010433</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国新收益灵活配置混合A</t>
+          <t>广发新兴产业精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>57.44</t>
+          <t>11.79</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4480</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001347</t>
+          <t>519673</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国新收益灵活配置混合C</t>
+          <t>银河康乐股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>57.44</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>82.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4223</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002124</t>
+          <t>008138</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发新兴产业精选灵活配置混合</t>
+          <t>富国龙头优势混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.81</t>
+          <t>11.04</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4206</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011125</t>
+          <t>001345</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>富国文体健康股票C</t>
+          <t>富国新收益灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>86.03</t>
+          <t>7.10</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>57.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010433</t>
+          <t>011125</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>广发新兴产业精选灵活配置混合C</t>
+          <t>富国文体健康股票C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>92.81</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008138</t>
+          <t>001347</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>富国龙头优势混合</t>
+          <t>富国新收益灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>92.53</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>57.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -805,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,15 +946,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -846,26 +976,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519673</t>
+          <t>000031</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银河康乐股票</t>
+          <t>华夏复兴混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>81.88</t>
+          <t>37.67</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8835</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -884,15 +1024,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>23.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>86.75</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.27</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7711</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011125</t>
+          <t>162720</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国文体健康股票C</t>
+          <t>广发创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>86.75</t>
+          <t>8.42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>77.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3814</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000031</t>
+          <t>519673</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏复兴混合</t>
+          <t>银河康乐股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>81.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2832</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>162720</t>
+          <t>011125</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发创业板两年定期开放混合</t>
+          <t>富国文体健康股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>77.19</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300662-科锐国际.xlsx
+++ b/数据整理/stocks/A股/创业板/300662-科锐国际.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1163,4 +1164,668 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏复兴混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9708</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5708</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1713</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011138</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>40.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6283</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4784</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>61.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4365</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002124</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3047</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2900</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河康乐股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2401</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011139</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>40.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000432</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银优秀企业混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009513</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011140</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>40.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009514</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300662-科锐国际.xlsx
+++ b/数据整理/stocks/A股/创业板/300662-科锐国际.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1828,4 +1829,744 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501207</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7911</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏复兴混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0710</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1757</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0339</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9323</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011138</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7107</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011140</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7107</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007349</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6167</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6106</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4614</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>52.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3719</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002124</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3462</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2554</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银河康乐股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1496</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007350</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011139</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300662-科锐国际.xlsx
+++ b/数据整理/stocks/A股/创业板/300662-科锐国际.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2569,4 +2570,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300662-科锐国际.xlsx
+++ b/数据整理/stocks/A股/创业板/300662-科锐国际.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2578,7 +2579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2589,17 +2590,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2609,14 +2630,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.41</v>
+          <t>501207</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8701</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2625,14 +2668,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.18</v>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏复兴混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4987</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2641,14 +2706,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.33</v>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8966</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2657,13 +2744,1063 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1302</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519035</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国天博创新混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0530</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011138</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8101</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011140</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8101</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>53.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6102</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010518</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5859</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>169107</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红恒阳五年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5759</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5744</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5582</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2352</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银河康乐股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1866</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002124</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010519</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1506</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000877</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011139</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005055</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009513</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009514</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006532</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>11</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>6.56</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300662-科锐国际.xlsx
+++ b/数据整理/stocks/A股/创业板/300662-科锐国际.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3699,7 +3700,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3710,17 +3711,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3730,14 +3751,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.18</v>
+          <t>501207</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>67.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1274</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3746,14 +3789,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.41</v>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏复兴混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0500</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3762,14 +3827,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.18</v>
+          <t>910007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>69.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2410</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -3778,14 +3865,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.33</v>
+          <t>007887</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>59.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0688</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -3794,13 +3903,927 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0396</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>70.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>43.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8477</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007349</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6232</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011138</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6083</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011140</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6083</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5203</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>50.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4645</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4498</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010518</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4404</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>169107</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方红恒阳五年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4296</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002124</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4122</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002472</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大保德信先进服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2655</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银河康乐股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1395</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>43.16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1384</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010519</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007350</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011139</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005027</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>光大保德信多策略优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>37.88</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>28.26</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>11</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>6.56</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300662-科锐国际.xlsx
+++ b/数据整理/stocks/A股/创业板/300662-科锐国际.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4706,7 +4707,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4717,17 +4718,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4737,14 +4758,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.87</v>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏复兴混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8713</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -4753,14 +4796,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>28</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.18</v>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>64.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7165</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -4769,14 +4834,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.41</v>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9266</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -4785,14 +4872,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.18</v>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>58.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>46.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7952</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -4801,14 +4910,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.33</v>
+          <t>011138</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5316</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -4817,13 +4948,601 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011140</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5316</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>53.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5195</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5025</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002124</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4421</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银河康乐股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1750</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1540</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>46.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1503</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010433</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009956</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发恒誉混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011139</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015073</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏复兴混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009957</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发恒誉混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.449999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>11</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>6.56</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300662-科锐国际.xlsx
+++ b/数据整理/stocks/A股/创业板/300662-科锐国际.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>8.449999999999999</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>13.87</v>
+        <v>8.449999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>15.18</v>
+        <v>13.87</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
-        <v>12.41</v>
+        <v>15.18</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>7.18</v>
+        <v>12.41</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>3.33</v>
+        <v>7.18</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>11</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>6.56</v>
       </c>
     </row>
@@ -600,6 +617,670 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏复兴混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2683</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011140</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3335</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011138</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3146</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2589</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>51.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2549</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1915</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1882</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1120</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河康乐股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013936</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发睿升混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0969</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>73.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>70.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>016018</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河康乐股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011139</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013937</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发睿升混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015073</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏复兴混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1301,7 +1982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2307,7 +2988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3427,7 +4108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4167,7 +4848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4831,7 +5512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5077,7 +5758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300662-科锐国际.xlsx
+++ b/数据整理/stocks/A股/创业板/300662-科锐国际.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D2" t="n">
-        <v>3.23</v>
+        <v>9.73</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>8.449999999999999</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>13.87</v>
+        <v>8.449999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>15.18</v>
+        <v>13.87</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D6" t="n">
-        <v>12.41</v>
+        <v>15.18</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>7.18</v>
+        <v>12.41</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>3.33</v>
+        <v>7.18</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>11</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>6.56</v>
       </c>
     </row>
@@ -616,7 +633,2017 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏复兴混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3330</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1408</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6414</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5418</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002124</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4480</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010433</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4480</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河康乐股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4223</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4206</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001345</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>57.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001347</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>57.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501207</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏创新未来混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3441</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏复兴混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4997</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1833</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002124</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6591</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008317</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大保德信睿盈混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4933</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011140</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4794</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011138</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4520</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4144</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3421</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2254</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013936</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发睿升混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1814</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1799</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.80</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1471</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银河康乐股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1382</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>016462</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1256</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010433</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015228</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏创新研选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001753</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>红土创新新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>66.35</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>400025</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>015227</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏创新研选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>180028</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华永祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>77.51</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005522</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年福定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>33.26</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007152</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>诺德策略精选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>74.12</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005914</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>景顺长城智能生活混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011139</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013937</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发睿升混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000591</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中银健康生活混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>71.03</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005545</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>65.05</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>016018</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银河康乐股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002598</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>平安消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000432</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银优秀企业混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.63</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002599</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>平安消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>015073</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏复兴混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>016480</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>65.05</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1280,7 +3307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1982,7 +4009,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2988,7 +5015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4108,7 +6135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4848,7 +6875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5512,7 +7539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5756,478 +7783,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000031</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏复兴混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>49.85</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.53</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.3330</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001186</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国文体健康股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>18.40</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.03</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.1408</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>501070</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发睿阳三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12.08</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6414</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000513</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富国高端制造行业股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>17.31</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.14</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5418</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002124</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发新兴产业精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>11.79</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.81</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4480</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010433</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发新兴产业精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>11.79</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.81</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4480</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>519673</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>银河康乐股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7.65</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>82.21</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.4223</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008138</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>富国龙头优势混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>11.04</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.53</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.4206</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001345</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>富国新收益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>7.10</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>57.44</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1228</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>011125</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>富国文体健康股票C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>86.03</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0223</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001347</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>富国新收益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>57.44</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0171</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>